--- a/biology/Botanique/Geissolomataceae/Geissolomataceae.xlsx
+++ b/biology/Botanique/Geissolomataceae/Geissolomataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Geissolomataceae est une petite famille de plantes dicotylédones créée autour de l'espèce Geissoloma marginatum. Ce sont de petits arbustes, à feuilles persistantes opposées, des zones arides, endémiques d'Afrique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Geissoloma formé des mots grecs γείσος / geisos, corniche, et λωμα / loma, frange, lisière, bordure, en référence à l'imbrication estivale (estivation) des pétales.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] les situe à la base des Rosidées, mais le Angiosperm Phylogeny Website les situe dans l'ordre des Crossosomatales, choix qui a été confirmé par la classification phylogénétique APG III (2009)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) les situe à la base des Rosidées, mais le Angiosperm Phylogeny Website les situe dans l'ordre des Crossosomatales, choix qui a été confirmé par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010)[3], NCBI  (2 juin 2010)[4] et DELTA Angio           (2 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010), NCBI  (2 juin 2010) et DELTA Angio           (2 juin 2010) :
 genre Geissoloma Lindl. ex Kunth</t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010)[3] et NCBI  (2 juin 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010) et NCBI  (2 juin 2010) :
 genre Geissoloma
 Geissoloma marginatum</t>
         </is>
